--- a/biology/Zoologie/Himella/Himella.xlsx
+++ b/biology/Zoologie/Himella/Himella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Himella Dallas, 1852 est un genre d'insectes hétéroptères de la famille des Coreidae présent dans chaque hémisphère. 
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est néotropical, rencontré au Panama, au Surinam, au Pérou, au Sud du Brésil et au NE de l'Argentine[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est néotropical, rencontré au Panama, au Surinam, au Pérou, au Sud du Brésil et au NE de l'Argentine.
 </t>
         </is>
       </c>
@@ -542,11 +556,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit par Dallas en 1852, pour une première espèce, H. venosa[3]. En 1986, Harry Brailovsky et Ernesto Barrera décrivent deux nouvelles espèces, H. incaica, du Pérou, et H. paramerana, du Suriname[4].
-Taxonomie
-Il ne faut pas le confondre avec Himella Grote, 1874, genre de papillon de la famille des Noctuidae, aujourd'hui rebaptisé Kocakina en raison de l'homonymie avec le précédent[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit par Dallas en 1852, pour une première espèce, H. venosa. En 1986, Harry Brailovsky et Ernesto Barrera décrivent deux nouvelles espèces, H. incaica, du Pérou, et H. paramerana, du Suriname.
 </t>
         </is>
       </c>
@@ -572,12 +586,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ne faut pas le confondre avec Himella Grote, 1874, genre de papillon de la famille des Noctuidae, aujourd'hui rebaptisé Kocakina en raison de l'homonymie avec le précédent. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Himella</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Himella</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (27 août 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (27 août 2022) :
 Himella incaica Brailovsky &amp; Barrera, 1986
 Himella paramerana Brailovsky &amp; Barrera, 1986
 Himella venosa Dallas, 1852</t>
